--- a/open_modules/data/openpyxl_sample.xlsx
+++ b/open_modules/data/openpyxl_sample.xlsx
@@ -1,58 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="1" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="10605" windowWidth="33630" xWindow="4755" yWindow="1740"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="4755" yWindow="1740" windowWidth="33630" windowHeight="10605" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="10">
-  <si>
-    <t>编号</t>
-  </si>
-  <si>
-    <t>内容</t>
-  </si>
-  <si>
-    <t>我爱北京天安门</t>
-  </si>
-  <si>
-    <t>天安门上太阳升</t>
-  </si>
-  <si>
-    <t>伟大领袖毛主席</t>
-  </si>
-  <si>
-    <t>带领我们向前进</t>
-  </si>
-  <si>
-    <t>2022-03-10 16:45:52.136883</t>
-  </si>
-  <si>
-    <t>d64fe882-4eeb-4767-8f1f-da90ea5fbaeb</t>
-  </si>
-  <si>
-    <t>2022-03-10 16:49:03.699646</t>
-  </si>
-  <si>
-    <t>e312904c-adef-4ae9-b928-c339f34be82a</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt formatCode="yyyy-mm-dd h:mm:ss" numFmtId="164"/>
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -87,21 +52,89 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="常规" xfId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -375,53 +408,65 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9.125" defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1">
+      <c r="A1" s="0" t="inlineStr">
+        <is>
+          <t>编号</t>
+        </is>
+      </c>
+      <c r="B1" s="0" t="inlineStr">
+        <is>
+          <t>内容</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="B2" s="0" t="inlineStr">
+        <is>
+          <t>我爱北京天安门</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="n">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="B3" s="0" t="inlineStr">
+        <is>
+          <t>天安门上太阳升</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="n">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="B4" s="0" t="inlineStr">
+        <is>
+          <t>伟大领袖毛主席</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="n">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="B5" s="0" t="inlineStr">
+        <is>
+          <t>带领我们向前进</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="n">
-        <v>5</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.511805555555556" header="0.511805555555556" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
 </worksheet>
 </file>
 
@@ -431,41 +476,64 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1:XFD10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9.125" defaultRowHeight="14.25" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9.125" defaultRowHeight="14.25"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="1" width="10.375"/>
-    <col customWidth="1" max="2" min="2" style="1" width="17.375"/>
+    <col width="10.375" customWidth="1" style="1" min="1" max="1"/>
+    <col width="17.375" customWidth="1" style="1" min="2" max="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="s">
-        <v>6</v>
+    <row r="1">
+      <c r="A1" s="0" t="inlineStr">
+        <is>
+          <t>2022-03-10 16:45:52.136883</t>
+        </is>
       </c>
       <c r="B1" s="2" t="n">
-        <v>44630.69852010281</v>
-      </c>
-      <c r="C1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
-        <v>8</v>
+        <v>44630.69852010417</v>
+      </c>
+      <c r="C1" s="0" t="inlineStr">
+        <is>
+          <t>d64fe882-4eeb-4767-8f1f-da90ea5fbaeb</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="inlineStr">
+        <is>
+          <t>2022-09-20 19:08:09.561863</t>
+        </is>
       </c>
       <c r="B2" s="2" t="n">
-        <v>44630.70073726442</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
+        <v>44824.79733289187</v>
+      </c>
+      <c r="C2" s="0" t="inlineStr">
+        <is>
+          <t>76b4309d-8b25-494f-a2c1-a2ca00563e3c</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2022-09-20 19:08:09.561972</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="n">
+        <v>44824.79733289318</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>3315dc18-4889-4322-b018-678efb4618ce</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.511805555555556" header="0.511805555555556" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
 </worksheet>
 </file>